--- a/689af43b20634866094170/questions_public_aug.xlsx
+++ b/689af43b20634866094170/questions_public_aug.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Сколько всего лет срок полезной службы воздушного судна в учётной политике?</t>
+          <t>Сколько лет всего срок полезной службы воздушного судна в учётной политике?</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
